--- a/province_geography_datatype.xlsx
+++ b/province_geography_datatype.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chula-my.sharepoint.com/personal/prasert_k_chula_ac_th/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{008C0A84-1ECC-46CA-8C55-7AA6135B6FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{008C0A84-1ECC-46CA-8C55-7AA6135B6FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2747A713-3E9E-4D9E-B0D0-67A311FCCD81}"/>
   <bookViews>
-    <workbookView xWindow="14317" yWindow="0" windowWidth="14565" windowHeight="15563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geo" sheetId="3" r:id="rId1"/>
@@ -1707,9 +1707,6 @@
     <t>เชียงใหม่</t>
   </si>
   <si>
-    <t>Nothern</t>
-  </si>
-  <si>
     <t>TH-57</t>
   </si>
   <si>
@@ -2323,6 +2320,9 @@
   </si>
   <si>
     <t>ยโสธร</t>
+  </si>
+  <si>
+    <t>Northern</t>
   </si>
 </sst>
 </file>
@@ -11351,7 +11351,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11567,7 +11567,7 @@
         <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="F10" s="1" cm="1" vm="18">
         <f t="array" ref="F10">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -11579,16 +11579,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="F11" s="1" cm="1" vm="20">
         <f t="array" ref="F11">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -11600,13 +11600,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -11621,16 +11621,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F13" s="1" cm="1" vm="24">
         <f t="array" ref="F13">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -11642,13 +11642,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>9</v>
@@ -11663,13 +11663,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
@@ -11684,13 +11684,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
@@ -11705,13 +11705,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>9</v>
@@ -11726,16 +11726,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="1" cm="1" vm="34">
         <f t="array" ref="F18">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -11747,13 +11747,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -11768,16 +11768,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="F20" s="1" cm="1" vm="38">
         <f t="array" ref="F20">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -11789,16 +11789,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="F21" s="1" cm="1" vm="40">
         <f t="array" ref="F21">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -11810,13 +11810,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>9</v>
@@ -11831,13 +11831,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -11852,16 +11852,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="F24" s="1" cm="1" vm="46">
         <f t="array" ref="F24">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -11873,13 +11873,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>9</v>
@@ -11894,13 +11894,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>9</v>
@@ -11915,13 +11915,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>13</v>
@@ -11936,13 +11936,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>13</v>
@@ -11957,13 +11957,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>9</v>
@@ -11978,13 +11978,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>9</v>
@@ -11999,13 +11999,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>13</v>
@@ -12020,16 +12020,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" s="1" cm="1" vm="62">
         <f t="array" ref="F32">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12041,16 +12041,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="F33" s="1" cm="1" vm="64">
         <f t="array" ref="F33">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12062,16 +12062,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" s="1" cm="1" vm="66">
         <f t="array" ref="F34">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12083,13 +12083,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>9</v>
@@ -12104,13 +12104,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>9</v>
@@ -12125,13 +12125,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>13</v>
@@ -12146,13 +12146,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>13</v>
@@ -12167,16 +12167,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" s="1" cm="1" vm="76">
         <f t="array" ref="F39">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12188,16 +12188,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" s="1" cm="1" vm="78">
         <f t="array" ref="F40">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12209,16 +12209,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" s="1" cm="1" vm="80">
         <f t="array" ref="F41">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12230,16 +12230,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="F42" s="1" cm="1" vm="82">
         <f t="array" ref="F42">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12251,13 +12251,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>13</v>
@@ -12272,13 +12272,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>13</v>
@@ -12293,13 +12293,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>13</v>
@@ -12314,13 +12314,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>13</v>
@@ -12335,13 +12335,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>13</v>
@@ -12356,16 +12356,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="F48" s="1" cm="1" vm="94">
         <f t="array" ref="F48">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12377,16 +12377,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" s="1" cm="1" vm="96">
         <f t="array" ref="F49">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12398,13 +12398,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>13</v>
@@ -12419,13 +12419,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>13</v>
@@ -12440,16 +12440,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" s="1" cm="1" vm="102">
         <f t="array" ref="F52">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12461,13 +12461,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
@@ -12482,13 +12482,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>13</v>
@@ -12503,13 +12503,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>9</v>
@@ -12524,13 +12524,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>13</v>
@@ -12545,13 +12545,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>9</v>
@@ -12566,13 +12566,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>13</v>
@@ -12587,13 +12587,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>13</v>
@@ -12608,13 +12608,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>13</v>
@@ -12629,13 +12629,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>13</v>
@@ -12650,16 +12650,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" s="1" cm="1" vm="122">
         <f t="array" ref="F62">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12671,13 +12671,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>9</v>
@@ -12692,13 +12692,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>13</v>
@@ -12713,16 +12713,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="E65" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" s="1" cm="1" vm="128">
         <f t="array" ref="F65">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12734,13 +12734,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>13</v>
@@ -12755,13 +12755,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>13</v>
@@ -12776,16 +12776,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="E68" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F68" s="1" cm="1" vm="134">
         <f t="array" ref="F68">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12797,13 +12797,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>9</v>
@@ -12818,13 +12818,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>13</v>
@@ -12839,16 +12839,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="E71" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F71" s="1" cm="1" vm="140">
         <f t="array" ref="F71">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12860,13 +12860,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>13</v>
@@ -12881,13 +12881,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>9</v>
@@ -12902,13 +12902,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>9</v>
@@ -12923,13 +12923,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>13</v>
@@ -12944,16 +12944,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="F76" s="1" cm="1" vm="150">
         <f t="array" ref="F76">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12965,16 +12965,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="E77" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F77" s="1" cm="1" vm="152">
         <f t="array" ref="F77">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12986,13 +12986,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>9</v>

--- a/province_geography_datatype.xlsx
+++ b/province_geography_datatype.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chula-my.sharepoint.com/personal/prasert_k_chula_ac_th/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{008C0A84-1ECC-46CA-8C55-7AA6135B6FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2747A713-3E9E-4D9E-B0D0-67A311FCCD81}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{008C0A84-1ECC-46CA-8C55-7AA6135B6FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAF6167B-4C37-49ED-A32C-7CFAF3D46A2F}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1734,9 +1734,6 @@
     <t>ชุมพร</t>
   </si>
   <si>
-    <t>Soutern</t>
-  </si>
-  <si>
     <t>TH-46</t>
   </si>
   <si>
@@ -2323,6 +2320,9 @@
   </si>
   <si>
     <t>Northern</t>
+  </si>
+  <si>
+    <t>Southern</t>
   </si>
 </sst>
 </file>
@@ -11351,7 +11351,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11567,7 +11567,7 @@
         <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F10" s="1" cm="1" vm="18">
         <f t="array" ref="F10">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -11588,7 +11588,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F11" s="1" cm="1" vm="20">
         <f t="array" ref="F11">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -11630,7 +11630,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="F13" s="1" cm="1" vm="24">
         <f t="array" ref="F13">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -11642,13 +11642,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>9</v>
@@ -11663,13 +11663,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
@@ -11684,13 +11684,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
@@ -11705,13 +11705,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>9</v>
@@ -11726,16 +11726,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="F18" s="1" cm="1" vm="34">
         <f t="array" ref="F18">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -11747,13 +11747,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -11768,16 +11768,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F20" s="1" cm="1" vm="38">
         <f t="array" ref="F20">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -11789,16 +11789,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F21" s="1" cm="1" vm="40">
         <f t="array" ref="F21">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -11810,13 +11810,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>9</v>
@@ -11831,13 +11831,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -11852,16 +11852,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F24" s="1" cm="1" vm="46">
         <f t="array" ref="F24">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -11873,13 +11873,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>9</v>
@@ -11894,13 +11894,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>9</v>
@@ -11915,13 +11915,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>13</v>
@@ -11936,13 +11936,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>13</v>
@@ -11957,13 +11957,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>9</v>
@@ -11978,13 +11978,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>9</v>
@@ -11999,13 +11999,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>13</v>
@@ -12020,16 +12020,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="F32" s="1" cm="1" vm="62">
         <f t="array" ref="F32">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12041,16 +12041,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F33" s="1" cm="1" vm="64">
         <f t="array" ref="F33">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12062,16 +12062,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="F34" s="1" cm="1" vm="66">
         <f t="array" ref="F34">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12083,13 +12083,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>9</v>
@@ -12104,13 +12104,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>9</v>
@@ -12125,13 +12125,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>13</v>
@@ -12146,13 +12146,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>13</v>
@@ -12167,16 +12167,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="F39" s="1" cm="1" vm="76">
         <f t="array" ref="F39">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12188,16 +12188,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="F40" s="1" cm="1" vm="78">
         <f t="array" ref="F40">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12209,16 +12209,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="F41" s="1" cm="1" vm="80">
         <f t="array" ref="F41">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12230,16 +12230,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F42" s="1" cm="1" vm="82">
         <f t="array" ref="F42">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12251,13 +12251,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>13</v>
@@ -12272,13 +12272,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>13</v>
@@ -12293,13 +12293,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>13</v>
@@ -12314,13 +12314,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>13</v>
@@ -12335,13 +12335,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>13</v>
@@ -12356,16 +12356,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F48" s="1" cm="1" vm="94">
         <f t="array" ref="F48">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12377,16 +12377,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="F49" s="1" cm="1" vm="96">
         <f t="array" ref="F49">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12398,13 +12398,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>13</v>
@@ -12419,13 +12419,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>13</v>
@@ -12440,16 +12440,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="F52" s="1" cm="1" vm="102">
         <f t="array" ref="F52">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12461,13 +12461,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
@@ -12482,13 +12482,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>13</v>
@@ -12503,13 +12503,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>9</v>
@@ -12524,13 +12524,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>13</v>
@@ -12545,13 +12545,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>9</v>
@@ -12566,13 +12566,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>13</v>
@@ -12587,13 +12587,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>13</v>
@@ -12608,13 +12608,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>13</v>
@@ -12629,13 +12629,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>13</v>
@@ -12650,16 +12650,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="F62" s="1" cm="1" vm="122">
         <f t="array" ref="F62">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12671,13 +12671,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>9</v>
@@ -12692,13 +12692,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>13</v>
@@ -12713,16 +12713,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="E65" s="1" t="s">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="F65" s="1" cm="1" vm="128">
         <f t="array" ref="F65">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12734,13 +12734,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>13</v>
@@ -12755,13 +12755,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>13</v>
@@ -12776,16 +12776,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="E68" s="1" t="s">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="F68" s="1" cm="1" vm="134">
         <f t="array" ref="F68">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12797,13 +12797,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>9</v>
@@ -12818,13 +12818,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>13</v>
@@ -12839,16 +12839,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="E71" s="1" t="s">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="F71" s="1" cm="1" vm="140">
         <f t="array" ref="F71">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12860,13 +12860,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>13</v>
@@ -12881,13 +12881,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>9</v>
@@ -12902,13 +12902,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>9</v>
@@ -12923,13 +12923,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>13</v>
@@ -12944,16 +12944,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F76" s="1" cm="1" vm="150">
         <f t="array" ref="F76">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12965,16 +12965,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="E77" s="1" t="s">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="F77" s="1" cm="1" vm="152">
         <f t="array" ref="F77">_FV(Table2[[#This Row],[province_th]],"Population")</f>
@@ -12986,13 +12986,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>9</v>

--- a/province_geography_datatype.xlsx
+++ b/province_geography_datatype.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chula-my.sharepoint.com/personal/prasert_k_chula_ac_th/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{008C0A84-1ECC-46CA-8C55-7AA6135B6FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAF6167B-4C37-49ED-A32C-7CFAF3D46A2F}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{008C0A84-1ECC-46CA-8C55-7AA6135B6FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F03FE7EB-DA47-44E9-B897-866C6CA824D5}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1611,9 +1611,6 @@
     <t>province_en</t>
   </si>
   <si>
-    <t>province_th2</t>
-  </si>
-  <si>
     <t>region</t>
   </si>
   <si>
@@ -2323,6 +2320,9 @@
   </si>
   <si>
     <t>Southern</t>
+  </si>
+  <si>
+    <t>province_geo</t>
   </si>
 </sst>
 </file>
@@ -11048,13 +11048,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{307E1EBA-3935-4591-A1A7-FE933C7D1511}" name="Table2" displayName="Table2" ref="A1:F78" totalsRowShown="0">
   <autoFilter ref="A1:F78" xr:uid="{FE1A5003-DC24-404B-9005-67CA60595F59}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EC2ADC6E-AA1F-415D-85F1-31659682E337}" name="province_th"/>
+    <tableColumn id="1" xr3:uid="{EC2ADC6E-AA1F-415D-85F1-31659682E337}" name="province_geo"/>
     <tableColumn id="2" xr3:uid="{A932A660-20B0-4261-BA5C-1DCA0549234B}" name="Code"/>
     <tableColumn id="3" xr3:uid="{FA0809BE-73E1-49C0-9FE7-85A2AFCE4DC3}" name="province_en"/>
-    <tableColumn id="4" xr3:uid="{DFDE1D69-8BAC-4F20-A9C7-9F5306F822AF}" name="province_th2"/>
+    <tableColumn id="4" xr3:uid="{DFDE1D69-8BAC-4F20-A9C7-9F5306F822AF}" name="province_th"/>
     <tableColumn id="5" xr3:uid="{B2DF3A3D-4A56-4712-8FAC-9CD1DCF625BF}" name="region"/>
     <tableColumn id="7" xr3:uid="{3B47676B-5B90-4653-A011-AEA713A9C1E1}" name="Population">
-      <calculatedColumnFormula array="1">_FV(Table2[[#This Row],[province_th]],"Population")</calculatedColumnFormula>
+      <calculatedColumnFormula array="1">_FV(Table2[[#This Row],[province_geo]],"Population")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -11351,7 +11351,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11367,7 +11367,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -11376,13 +11376,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11390,19 +11390,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="1" cm="1" vm="2">
-        <f t="array" ref="F2">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F2">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>376350</v>
       </c>
     </row>
@@ -11411,19 +11411,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" s="1" cm="1" vm="4">
-        <f t="array" ref="F3">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F3">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>276584</v>
       </c>
     </row>
@@ -11432,19 +11432,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" cm="1" vm="6">
-        <f t="array" ref="F4">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F4">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>4494</v>
       </c>
     </row>
@@ -11453,19 +11453,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" cm="1" vm="8">
-        <f t="array" ref="F5">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F5">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>1581184</v>
       </c>
     </row>
@@ -11474,19 +11474,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" cm="1" vm="10">
-        <f t="array" ref="F6">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F6">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>720718</v>
       </c>
     </row>
@@ -11495,19 +11495,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1" cm="1" vm="12">
-        <f t="array" ref="F7">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F7">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>12541</v>
       </c>
     </row>
@@ -11516,19 +11516,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" cm="1" vm="14">
-        <f t="array" ref="F8">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F8">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>1124924</v>
       </c>
     </row>
@@ -11537,19 +11537,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" cm="1" vm="16">
-        <f t="array" ref="F9">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F9">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>535559</v>
       </c>
     </row>
@@ -11558,19 +11558,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F10" s="1" cm="1" vm="18">
-        <f t="array" ref="F10">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F10">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>1784370</v>
       </c>
     </row>
@@ -11579,19 +11579,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F11" s="1" cm="1" vm="20">
-        <f t="array" ref="F11">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F11">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>1295026</v>
       </c>
     </row>
@@ -11600,19 +11600,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="1" cm="1" vm="22">
-        <f t="array" ref="F12">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F12">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>1566885</v>
       </c>
     </row>
@@ -11621,19 +11621,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F13" s="1" cm="1" vm="24">
-        <f t="array" ref="F13">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F13">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>509208</v>
       </c>
     </row>
@@ -11642,19 +11642,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" s="1" cm="1" vm="26">
-        <f t="array" ref="F14">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F14">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>977175</v>
       </c>
     </row>
@@ -11663,19 +11663,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="1" cm="1" vm="28">
-        <f t="array" ref="F15">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F15">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>714118</v>
       </c>
     </row>
@@ -11684,19 +11684,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="1" cm="1" vm="30">
-        <f t="array" ref="F16">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F16">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>25651</v>
       </c>
     </row>
@@ -11705,19 +11705,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" s="1" cm="1" vm="32">
-        <f t="array" ref="F17">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F17">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>1794531</v>
       </c>
     </row>
@@ -11726,19 +11726,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F18" s="1" cm="1" vm="34">
-        <f t="array" ref="F18">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F18">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>30499</v>
       </c>
     </row>
@@ -11747,19 +11747,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="1" cm="1" vm="36">
-        <f t="array" ref="F19">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F19">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>5676648</v>
       </c>
     </row>
@@ -11768,19 +11768,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F20" s="1" cm="1" vm="38">
-        <f t="array" ref="F20">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F20">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>728964</v>
       </c>
     </row>
@@ -11789,19 +11789,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F21" s="1" cm="1" vm="40">
-        <f t="array" ref="F21">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F21">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>402011</v>
       </c>
     </row>
@@ -11810,19 +11810,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" s="1" cm="1" vm="42">
-        <f t="array" ref="F22">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F22">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>638736</v>
       </c>
     </row>
@@ -11831,19 +11831,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" s="1" cm="1" vm="44">
-        <f t="array" ref="F23">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F23">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>742928</v>
       </c>
     </row>
@@ -11852,19 +11852,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F24" s="1" cm="1" vm="46">
-        <f t="array" ref="F24">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F24">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>6526</v>
       </c>
     </row>
@@ -11873,19 +11873,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" s="1" cm="1" vm="48">
-        <f t="array" ref="F25">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F25">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>953660</v>
       </c>
     </row>
@@ -11894,19 +11894,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" s="1" cm="1" vm="50">
-        <f t="array" ref="F26">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F26">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>350911</v>
       </c>
     </row>
@@ -11915,19 +11915,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" s="1" cm="1" vm="52">
-        <f t="array" ref="F27">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F27">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>260081</v>
       </c>
     </row>
@@ -11936,19 +11936,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" s="1" cm="1" vm="54">
-        <f t="array" ref="F28">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F28">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>920729</v>
       </c>
     </row>
@@ -11957,19 +11957,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" s="1" cm="1" vm="56">
-        <f t="array" ref="F29">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F29">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>717201</v>
       </c>
     </row>
@@ -11978,19 +11978,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" s="1" cm="1" vm="58">
-        <f t="array" ref="F30">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F30">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>2633207</v>
       </c>
     </row>
@@ -11999,19 +11999,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" s="1" cm="1" vm="60">
-        <f t="array" ref="F31">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F31">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>1040308</v>
       </c>
     </row>
@@ -12020,19 +12020,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F32" s="1" cm="1" vm="62">
-        <f t="array" ref="F32">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F32">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>1550721</v>
       </c>
     </row>
@@ -12041,19 +12041,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F33" s="1" cm="1" vm="64">
-        <f t="array" ref="F33">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F33">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>476727</v>
       </c>
     </row>
@@ -12062,19 +12062,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F34" s="1" cm="1" vm="66">
-        <f t="array" ref="F34">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F34">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>804429</v>
       </c>
     </row>
@@ -12083,19 +12083,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" s="1" cm="1" vm="68">
-        <f t="array" ref="F35">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F35">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>21528</v>
       </c>
     </row>
@@ -12104,19 +12104,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" s="1" cm="1" vm="70">
-        <f t="array" ref="F36">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F36">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>517435</v>
       </c>
     </row>
@@ -12125,19 +12125,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F37" s="1" cm="1" vm="72">
-        <f t="array" ref="F37">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F37">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>1295916</v>
       </c>
     </row>
@@ -12146,19 +12146,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F38" s="1" cm="1" vm="74">
-        <f t="array" ref="F38">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F38">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>1176412</v>
       </c>
     </row>
@@ -12167,19 +12167,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F39" s="1" cm="1" vm="76">
-        <f t="array" ref="F39">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F39">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>726015</v>
       </c>
     </row>
@@ -12188,19 +12188,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F40" s="1" cm="1" vm="78">
-        <f t="array" ref="F40">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F40">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>268229</v>
       </c>
     </row>
@@ -12209,19 +12209,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F41" s="1" cm="1" vm="80">
-        <f t="array" ref="F41">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F41">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>35039</v>
       </c>
     </row>
@@ -12230,19 +12230,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F42" s="1" cm="1" vm="82">
-        <f t="array" ref="F42">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F42">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>467356</v>
       </c>
     </row>
@@ -12251,19 +12251,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="E43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43" s="1" cm="1" vm="84">
-        <f t="array" ref="F43">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F43">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>981940</v>
       </c>
     </row>
@@ -12272,19 +12272,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F44" s="1" cm="1" vm="86">
-        <f t="array" ref="F44">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F44">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>23235</v>
       </c>
     </row>
@@ -12293,19 +12293,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" s="1" cm="1" vm="88">
-        <f t="array" ref="F45">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F45">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>532310</v>
       </c>
     </row>
@@ -12314,19 +12314,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="E46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F46" s="1" cm="1" vm="90">
-        <f t="array" ref="F46">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F46">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>849481</v>
       </c>
     </row>
@@ -12335,19 +12335,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F47" s="1" cm="1" vm="92">
-        <f t="array" ref="F47">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F47">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>819088</v>
       </c>
     </row>
@@ -12356,19 +12356,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F48" s="1" cm="1" vm="94">
-        <f t="array" ref="F48">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F48">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>437350</v>
       </c>
     </row>
@@ -12377,19 +12377,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F49" s="1" cm="1" vm="96">
-        <f t="array" ref="F49">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F49">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>77610</v>
       </c>
     </row>
@@ -12398,19 +12398,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50" s="1" cm="1" vm="98">
-        <f t="array" ref="F50">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F50">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>493670</v>
       </c>
     </row>
@@ -12419,19 +12419,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F51" s="1" cm="1" vm="100">
-        <f t="array" ref="F51">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F51">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>550678</v>
       </c>
     </row>
@@ -12440,19 +12440,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F52" s="1" cm="1" vm="102">
-        <f t="array" ref="F52">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F52">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>194372</v>
       </c>
     </row>
@@ -12461,19 +12461,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="E53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F53" s="1" cm="1" vm="104">
-        <f t="array" ref="F53">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F53">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>36339</v>
       </c>
     </row>
@@ -12482,19 +12482,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="E54" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F54" s="1" cm="1" vm="106">
-        <f t="array" ref="F54">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F54">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>741524</v>
       </c>
     </row>
@@ -12503,19 +12503,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="E55" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" s="1" cm="1" vm="108">
-        <f t="array" ref="F55">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F55">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>1298640</v>
       </c>
     </row>
@@ -12524,19 +12524,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="E56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F56" s="1" cm="1" vm="110">
-        <f t="array" ref="F56">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F56">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>560925</v>
       </c>
     </row>
@@ -12545,19 +12545,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="E57" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" s="1" cm="1" vm="112">
-        <f t="array" ref="F57">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F57">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>1146936</v>
       </c>
     </row>
@@ -12566,19 +12566,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="E58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F58" s="1" cm="1" vm="114">
-        <f t="array" ref="F58">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F58">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>1351479</v>
       </c>
     </row>
@@ -12587,19 +12587,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="E59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F59" s="1" cm="1" vm="116">
-        <f t="array" ref="F59">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F59">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>60103</v>
       </c>
     </row>
@@ -12608,19 +12608,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F60" s="1" cm="1" vm="118">
-        <f t="array" ref="F60">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F60">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>192052</v>
       </c>
     </row>
@@ -12629,19 +12629,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="E61" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F61" s="1" cm="1" vm="120">
-        <f t="array" ref="F61">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F61">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>643828</v>
       </c>
     </row>
@@ -12650,19 +12650,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F62" s="1" cm="1" vm="122">
-        <f t="array" ref="F62">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F62">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>324098</v>
       </c>
     </row>
@@ -12671,19 +12671,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63" s="1" cm="1" vm="124">
-        <f t="array" ref="F63">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F63">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>42405</v>
       </c>
     </row>
@@ -12692,19 +12692,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F64" s="1" cm="1" vm="126">
-        <f t="array" ref="F64">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F64">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>17843</v>
       </c>
     </row>
@@ -12713,19 +12713,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="E65" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F65" s="1" cm="1" vm="128">
-        <f t="array" ref="F65">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F65">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>1428609</v>
       </c>
     </row>
@@ -12734,19 +12734,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="E66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F66" s="1" cm="1" vm="130">
-        <f t="array" ref="F66">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F66">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>587883</v>
       </c>
     </row>
@@ -12755,19 +12755,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="E67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F67" s="1" cm="1" vm="132">
-        <f t="array" ref="F67">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F67">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>26164</v>
       </c>
     </row>
@@ -12776,19 +12776,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="E68" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F68" s="1" cm="1" vm="134">
-        <f t="array" ref="F68">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F68">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>1073663</v>
       </c>
     </row>
@@ -12797,19 +12797,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="E69" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F69" s="1" cm="1" vm="136">
-        <f t="array" ref="F69">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F69">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>1378221</v>
       </c>
     </row>
@@ -12818,19 +12818,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="E70" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F70" s="1" cm="1" vm="138">
-        <f t="array" ref="F70">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F70">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>670265</v>
       </c>
     </row>
@@ -12839,19 +12839,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="E71" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F71" s="1" cm="1" vm="140">
-        <f t="array" ref="F71">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F71">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>640574</v>
       </c>
     </row>
@@ -12860,19 +12860,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="E72" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F72" s="1" cm="1" vm="142">
-        <f t="array" ref="F72">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F72">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>228536</v>
       </c>
     </row>
@@ -12881,19 +12881,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="E73" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73" s="1" cm="1" vm="144">
-        <f t="array" ref="F73">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F73">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>1866697</v>
       </c>
     </row>
@@ -12902,19 +12902,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="E74" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F74" s="1" cm="1" vm="146">
-        <f t="array" ref="F74">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F74">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>1563048</v>
       </c>
     </row>
@@ -12923,19 +12923,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="E75" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F75" s="1" cm="1" vm="148">
-        <f t="array" ref="F75">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F75">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>15434</v>
       </c>
     </row>
@@ -12944,19 +12944,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F76" s="1" cm="1" vm="150">
-        <f t="array" ref="F76">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F76">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>448745</v>
       </c>
     </row>
@@ -12965,19 +12965,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="E77" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F77" s="1" cm="1" vm="152">
-        <f t="array" ref="F77">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F77">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>538602</v>
       </c>
     </row>
@@ -12986,19 +12986,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="E78" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F78" s="1" cm="1" vm="154">
-        <f t="array" ref="F78">_FV(Table2[[#This Row],[province_th]],"Population")</f>
+        <f t="array" ref="F78">_FV(Table2[[#This Row],[province_geo]],"Population")</f>
         <v>534500</v>
       </c>
     </row>
